--- a/TestData/KD.xlsx
+++ b/TestData/KD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anushri.mundada\source\repos\SeleniumProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C757E-4182-4945-8A1F-2B66724164E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB35A9C3-FC8A-402B-BCB9-7116D6DDB858}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="4575" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53" yWindow="-53" windowWidth="25706" windowHeight="13906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClinicianLanding" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Keyword</t>
   </si>
@@ -175,17 +175,20 @@
     <t>img[alt='Citadel Health Pty. Ltd.']</t>
   </si>
   <si>
-    <t>Compare and get text</t>
-  </si>
-  <si>
     <t>Compare</t>
+  </si>
+  <si>
+    <t>Compare the patient name</t>
+  </si>
+  <si>
+    <t>SM2ITHEE, Sophia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +211,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,13 +262,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,7 +554,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,15 +896,15 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -901,7 +912,9 @@
       <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/KD.xlsx
+++ b/TestData/KD.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anushri.mundada\source\repos\SeleniumProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB35A9C3-FC8A-402B-BCB9-7116D6DDB858}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB3E62-7CA0-4C97-B18F-9456D3B6840C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-53" yWindow="-53" windowWidth="25706" windowHeight="13906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ClinicianLanding" sheetId="2" r:id="rId1"/>
-    <sheet name="Keywords" sheetId="1" r:id="rId2"/>
+    <sheet name="MedicalLanding" sheetId="2" r:id="rId1"/>
+    <sheet name="SearchAndOpen" sheetId="3" r:id="rId2"/>
+    <sheet name="Keywords" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
   <si>
     <t>Keyword</t>
   </si>
@@ -181,13 +182,31 @@
     <t>Compare the patient name</t>
   </si>
   <si>
-    <t>SM2ITHEE, Sophia</t>
+    <t>SMITHEE, Sophia</t>
+  </si>
+  <si>
+    <t>TC834</t>
+  </si>
+  <si>
+    <t>.list-pf-container</t>
+  </si>
+  <si>
+    <t>Verfiy the Patient banner strip gets displayed</t>
+  </si>
+  <si>
+    <t>///strong[@innertext='DoB']</t>
+  </si>
+  <si>
+    <t>Compare the DOB text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,12 +276,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -551,19 +584,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +621,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -604,7 +637,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -622,7 +655,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -640,7 +673,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -660,7 +693,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -680,7 +713,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -698,7 +731,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -716,7 +749,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -734,7 +767,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -752,7 +785,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
@@ -772,7 +805,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -790,7 +823,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
@@ -808,7 +841,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
@@ -826,7 +859,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
@@ -844,7 +877,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -862,7 +895,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -880,31 +913,30 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -912,9 +944,50 @@
       <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7">
+        <v>11355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -926,17 +999,393 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D92C5-88D1-44D1-8706-1BA76073B7EC}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2F745A15-49BA-4AE9-AEA4-384EC3657D69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/TestData/KD.xlsx
+++ b/TestData/KD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anushri.mundada\source\repos\SeleniumProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB3E62-7CA0-4C97-B18F-9456D3B6840C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9BE9BE-87FA-4349-B7AA-2EE6F67E6436}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MedicalLanding" sheetId="2" r:id="rId1"/>
-    <sheet name="SearchAndOpen" sheetId="3" r:id="rId2"/>
-    <sheet name="Keywords" sheetId="1" r:id="rId3"/>
+    <sheet name="Keywords" sheetId="1" r:id="rId2"/>
+    <sheet name="SearchAndOpen" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,382 +999,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D92C5-88D1-44D1-8706-1BA76073B7EC}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2F745A15-49BA-4AE9-AEA4-384EC3657D69}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1440,4 +1064,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5C95D9-7955-49C6-BE46-FEE6B2F4B79F}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0CCB983C-41A6-4050-A206-FDFD60234AF2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>